--- a/hosts.xlsx
+++ b/hosts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>199.83.129.117</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -22,6 +22,12 @@
   <si>
     <t>cdn.xxshe.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app-hzf.rhcloud.com</t>
+  </si>
+  <si>
+    <t>52.7.2.171</t>
   </si>
 </sst>
 </file>
@@ -370,15 +376,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -389,6 +396,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
